--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Feijao.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Feijao.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Feijão Carioca Camil 1kg</t>
+          <t>Feijao Preto Broto Legal 1kg Tipo 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92217351-768c-4e0c-89cc-d701f9516826.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b14f86b-2db3-43b3-ae89-f91bf80725f0.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896901200235</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Feijão Carioca Tipo 1 Namorado 1kg</t>
+          <t>Feijao Rosinha Broto Legal Tipo 1 500g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c11975f-4dcc-445c-8c09-b55b8921e6d1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3352b59-fd94-4aea-9128-4a720f2d4197.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896200115100</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Feijão Carioca Kicaldo 1kg</t>
+          <t>Feijao Jalo Broto Legal Tipo 1 500g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffa3bab1-0631-4506-bbd7-fd0e1adb9a05.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7092907-be2b-4cae-bd4a-334622c9f30b.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896200115056</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Feijão Preto Camil Tipo 1 1kg</t>
+          <t>Feijao Vermelho Urbano 500g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 6,29</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1844f6e5-d1ce-4c89-ac6b-905cbfe2c843.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27021cee-819c-47fb-bf97-221d49c6b3d0.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896401183113</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Feijao Carioca Broto Legal 1kg Tipo 1</t>
+          <t>Feijao Branco Urbano 500g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a11683f-65f0-4c7d-9786-686a38aec362.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b2b1984-5a3d-471f-ae6b-486c9781ea18.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896006748885</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Feijao Carioca Caldo Nobre 1kg</t>
+          <t>Feijao Rajado Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33347d54-ee63-49b4-9942-b8e65621f685.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3cbceab-6fac-458a-9c21-40cb6643e7f4.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896116900425</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Feijão Preto Kicaldo Premium 1 Kg</t>
+          <t>Feijao Vermelho Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/349bfcc1-fd52-4a15-a5a5-812bfd16c750.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad1a3151-975e-4a25-9e2f-535fecce9cfd.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896116900845</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Feijao Preto Camil Tipo1 500g</t>
+          <t>Feijao Fradinho Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adda643a-0b42-4732-a421-07c936393a94.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/591c7f9a-cfb6-4251-bb5a-345706856167.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896116900821</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Feijao Preto Broto Legal 1kg Tipo 1</t>
+          <t>Feijao Branco Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b14f86b-2db3-43b3-ae89-f91bf80725f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b498e5d-05c5-4f34-b428-3b25df8b42fb.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896116900821</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Feijao Branco Kicaldo 1kg</t>
+          <t>Feijao Preto Camil Tipo1 500g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b498e5d-05c5-4f34-b428-3b25df8b42fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adda643a-0b42-4732-a421-07c936393a94.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896006751106</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Feijao Fradinho Kicaldo 1kg</t>
+          <t>Feijao Carioca Caldo Nobre 1kg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/591c7f9a-cfb6-4251-bb5a-345706856167.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33347d54-ee63-49b4-9942-b8e65621f685.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898276600108</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Feijao Branco Urbano 500g</t>
+          <t>Feijao Rajado Camil 500gr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b2b1984-5a3d-471f-ae6b-486c9781ea18.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5e9bdcd-ba69-4c3a-ac05-bc16e2dc5089.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896006748786</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Feijao Fradinho Camil 500gr</t>
+          <t>Feijao Branco Camil 500g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ddddde3d-de8c-433f-85ef-06ec3405cbf6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f3ed02c-c840-4648-be54-79b5b2d18cb7.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896006748885</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Feijao Branco Camil 500g</t>
+          <t>Feijao Fradinho Camil 500gr</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f3ed02c-c840-4648-be54-79b5b2d18cb7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ddddde3d-de8c-433f-85ef-06ec3405cbf6.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896006749295</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Feijao Vermelho Urbano 500g</t>
+          <t>Feijão Preto Camil Tipo 1 1kg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 6,29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27021cee-819c-47fb-bf97-221d49c6b3d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1844f6e5-d1ce-4c89-ac6b-905cbfe2c843.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896006751106</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Feijao Vermelho Kicaldo 1kg</t>
+          <t>Feijão Carioca Kicaldo 1kg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad1a3151-975e-4a25-9e2f-535fecce9cfd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffa3bab1-0631-4506-bbd7-fd0e1adb9a05.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896116902016</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Feijão Preto Pronto Camil 380g</t>
+          <t>Feijão Preto Kicaldo Premium 1 Kg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbdd4864-84e2-4a6b-a2c9-31fb65dacefb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/349bfcc1-fd52-4a15-a5a5-812bfd16c750.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896116900647</t>
         </is>
       </c>
     </row>
@@ -920,179 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Feijao Rajado Kicaldo 1kg</t>
+          <t>Feijão Preto Pronto Camil 380g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3cbceab-6fac-458a-9c21-40cb6643e7f4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Feijao Rajado Camil 500gr</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5e9bdcd-ba69-4c3a-ac05-bc16e2dc5089.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Feijao Pronto Camil 380gr Branco</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68945c20-1625-4602-893a-c72537c5496a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Feijao Em Conserva Camil 380gr Fraldinho</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 8,49</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f30800d1-7aea-49a9-8522-fab9ed67d936.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Feijao Jalo Broto Legal Tipo 1 500g</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7092907-be2b-4cae-bd4a-334622c9f30b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Feijao Rosinha Broto Legal Tipo 1 500g</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3352b59-fd94-4aea-9128-4a720f2d4197.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Feijão Bolinha Broto Legal Tipo 1 500g</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fb43264-7c0e-44ea-8e7f-315c8db9dde3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fbdd4864-84e2-4a6b-a2c9-31fb65dacefb.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896006751106</t>
         </is>
       </c>
     </row>
